--- a/Excel/analyze_menu.xlsx
+++ b/Excel/analyze_menu.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187C04FD-F640-4CB6-8C5E-C295D1E95F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>English</t>
   </si>
@@ -199,168 +205,48 @@
     <t>/usr/lib/vamp (system-wide plug-ins).</t>
   </si>
   <si>
-    <t>मेनूचे विश्लेषण करा - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>मेनूचे विश्लेषण करा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
-    <t>विश्लेषण मेनूमध्ये आपल्या ऑडिओची वैशिष्ट्ये किंवा मुख्य वैशिष्ट्ये लेबलिंग शोधण्यासाठी साधने आहेत. ऑडिओ इनपुट स्वीकारणारे परंतु कोणतेही ऑडिओ आउटपुट न देणारे प्लग-इन विश्लेषण लेबलद्वारे प्रदान केलेल्या विश्लेषणासह (किंवा काही वैकल्पिक एलएडीएसपीए प्लग-इनमध्ये प्लग-इनमध्येच "इफेक्ट आउटपुट" विभागाद्वारे प्रदान केले जातील) ). जरी डीफॉल्टनुसार, बहुतेक विश्लेषण साधनांसाठी कीबोर्ड शॉर्टकट प्रदान केला जात नाही, तरीही कोणत्याही विश्लेषण आदेशासाठी आपला स्वतःचा शॉर्टकट सेट करणे शक्य आहे. हे कसे करावे यावरील सूचनांसाठी कृपया कीबोर्ड प्राधान्ये पहा.</t>
-  </si>
-  <si>
     <t>अधिक जाणून घेण्यासाठी प्रतिमेवर क्लिक करा</t>
   </si>
   <si>
-    <t>ऑडसिटीमध्ये पाठविलेले बर्‍याच विश्लेषणे उपकरणे ही एनक्विस्ट प्लग-इन आहेत जी कोणत्याही मजकूर संपादकात संपादित केली जाऊ शकतात. Nyquist स्वरूप बद्दल अधिक तपशीलांसाठी आमच्या विकीवर Nyquist प्लग-इन संदर्भ पहा. आपण अतिरिक्त Nyquist विश्लेषण प्लगइन डाउनलोड करू शकता. अंगभूत विश्लेषक हे एलएडीएसपीए प्रभाव आहेत. लिनक्ससाठी काही अतिरिक्त LADSPA विश्लेषण प्लग-इन http://www.ladspa.org/ वरून डाउनलोड केले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>प्रत्येक पाठविलेल्या विश्लेषण प्रभावाचे वर्णन पृष्ठ (खाली दिलेल्या दुव्यांद्वारे प्रवेश केलेले) इंटरफेसची प्रतिमा आणि त्यातील डीफॉल्ट सेटिंग्ज दर्शविते.</t>
-  </si>
-  <si>
-    <t>ऑडसिटीचे विश्लेषण साधने</t>
-  </si>
-  <si>
-    <t>तीन अंगभूत एलएडीएसपीए विश्लेषण साधने आहेतः कॉन्ट्रास्ट, प्लॉट स्पेक्ट्रम आणि फाइंड क्लीपिंग</t>
-  </si>
-  <si>
-    <t>ऑडॅसिटीसह शिप केली गेलेली पाच नेकीस्ट प्लग-इन विश्लेषण साधने आहेतः बीट फाइंडर, नियमित अंतराल लेबले, नमुना डेटा निर्यात, मौन शोधक आणि ध्वनी शोधक</t>
-  </si>
-  <si>
-    <t>व्हँप अ‍ॅनालिसिस प्लग-इन देखील जोडले जाऊ शकतात.</t>
-  </si>
-  <si>
     <t>प्लग-इन जोडा / काढा ...</t>
   </si>
   <si>
-    <t>विश्लेषण मेनूमधून हा पर्याय निवडणे (किंवा प्रभाव मेनू किंवा मेनू व्युत्पन्न करा) आपल्याला एका संवादात घेऊन जाईल जे आपल्याला ऑडसिटीमधून विश्लेषक (आणि प्रभाव आणि जनरेटर) लोड आणि अनलोड करण्यास सक्षम करते.</t>
-  </si>
-  <si>
-    <t>हे आपणास आपले विश्लेषण मेनू आवश्यकतेनुसार ते कमी किंवा जास्त वेळ सानुकूलित करण्यास सक्षम करते.</t>
-  </si>
-  <si>
     <t>तपशीलांसाठी प्लग-इन व्यवस्थापक: प्रभाव, जनरेटर आणि विश्लेषक पहा.</t>
   </si>
   <si>
-    <t>अतिरिक्त प्लगइन ऑडॅसिटीमध्ये देखील लोड केले जाऊ शकतात.</t>
-  </si>
-  <si>
     <t>तपशीलांसाठी पुढील सामान्य प्रश्न पहा: विंडोज, मॅक आणि लिनक्स</t>
   </si>
   <si>
-    <t>ऑडिसिटी विकीवरील उपलब्ध एनक्यूइस्ट विश्लेषक प्लगइनची देखील सूची पहा, ती आपण सहजपणे डाउनलोड करू शकता आणि ऑडॅसिटीमध्ये जोडू शकता.</t>
-  </si>
-  <si>
     <t>अंगभूत एलएडीएसपीए विश्लेषण साधने</t>
   </si>
   <si>
-    <t>कॉन्ट्रास्ट ... Ctrl + Shift + T</t>
-  </si>
-  <si>
     <t>अतिरिक्त</t>
   </si>
   <si>
-    <t>अग्रभागी (भाषण) आणि पार्श्वभूमी (संगीत, प्रेक्षकांचा आवाज किंवा तत्सम) दरम्यान व्हॉल्यूम (कॉन्ट्रास्ट) मधील सरासरी आरएमएस फरक निश्चित करण्यासाठी निवडलेल्या, एकल-नॉन-स्टीरिओ ऑडिओ ट्रॅकचे विश्लेषण करते. भाषण ऐकण्याच्या कठीणतेसाठी सुगम आहे की नाही हे निर्धारित करणे हा आहे.</t>
-  </si>
-  <si>
     <t>भूखंड स्पेक्ट्रम ...</t>
   </si>
   <si>
-    <t>निवडलेला ऑडिओ घेते (जे वेळेच्या वेळी ध्वनी दाबा मूल्यांचा सेट आहे) आणि त्याला फ्रिक्वेन्सीच्या ग्राफमध्ये रुपांतरित करते (क्षैतिज स्केल मध्ये</t>
-  </si>
-  <si>
-    <t>एम्प्लिट्यूड्स विरूद्ध (हर्ट्ज) (डीबी मधील अनुलंब स्केल).</t>
-  </si>
-  <si>
-    <t>क्लिपिंग शोधा ...</t>
-  </si>
-  <si>
-    <t>लेबल ट्रॅकमध्ये क्लिप केलेल्या नमुन्यांची धाव दाखवा, दर्शवा क्लिपिंग दर्शविण्यासाठी स्क्रीन-रीडर प्रवेशयोग्य पर्याय म्हणून. धाव मध्ये कमीतकमी एक क्लिप केलेला नमुना असणे आवश्यक आहे, परंतु त्यात न पडलेले नमुनेदेखील असू शकतात.</t>
-  </si>
-  <si>
-    <t>ऑडीसिटी सह शिप केलेले एनवायक्इस्ट प्लग-इन विश्लेषण साधने</t>
-  </si>
-  <si>
-    <t>नियमित अंतराल लेबले</t>
-  </si>
-  <si>
-    <t>लेबल ट्रॅकमध्ये लेबले पॉईंट करतात जेणेकरून संबंधित ऑडिओ लहान, समान-आकारातील विभागांमध्ये विभाजित करता येईल. इंटरनेटवर मोठी फाईल वितरित करण्यासाठी किंवा सर्व निर्यात केलेल्या फायली समान आकाराच्या आहेत हे सुनिश्चित करण्यासाठी हे उपयुक्त ठरेल.</t>
-  </si>
-  <si>
-    <t>नमुना डेटा निर्यात</t>
-  </si>
-  <si>
-    <t>निवडलेल्या ऑडिओवरील सलग नमुन्यांची मूल्ये वाचतो आणि हा डेटा एका साध्या मजकूर, सीएसव्ही किंवा एचटीएमएल फाइलवर मुद्रित करतो. फाईलच्या शीर्षस्थानी पुढील माहिती "शीर्षलेख" म्हणून जोडली जाऊ शकते.</t>
-  </si>
-  <si>
     <t>बीट शोधक ...</t>
   </si>
   <si>
-    <t>आजूबाजूच्या ऑडिओपेक्षा जोरात असलेल्या बीट्सवर लेबले ठेवण्याचा प्रयत्न. हे बर्‍यापैकी उग्र आणि तयार साधन आहे आणि संकुचित डायनॅमिक श्रेणीसह टिपिकल आधुनिक पॉप म्युझिक ट्रॅकवर चांगले कार्य करणार नाही.</t>
-  </si>
-  <si>
-    <t>खालील दोन संबंधित "सायलेन्स फाइंडर" आणि "साउंड फाइंडर" साधने एलपी किंवा कॅसेटवरील ट्रॅक सारख्या लांब रेकॉर्डिंगमध्ये वेगवेगळी गाणी किंवा विभाग लेबल करण्यासाठी खूप उपयुक्त आहेत.</t>
-  </si>
-  <si>
     <t>शांतता शोधक ...</t>
   </si>
   <si>
-    <t>शांततेच्या ठिकाणी पॉईंट लेबल ठेवून ट्रॅक अप विभाजित करते.</t>
-  </si>
-  <si>
-    <t>आपण त्यामधील शांतता न काढता एखाद्या विशिष्ट बिंदूवर फक्त रेकॉर्डिंगला ट्रॅकमध्ये विभाजित करू इच्छित असल्यास हे वापरा.</t>
-  </si>
-  <si>
     <t>ध्वनी शोधक ...</t>
   </si>
   <si>
-    <t>शांततेने विभक्त झालेल्या आवाजाच्या क्षेत्रासाठी प्रदेश लेबल ठेवून ट्रॅक अप विभाजित करते. प्रत्येक ट्रॅकची निर्यात केली जाण्यासाठी लेबले अचूक प्रदेश दर्शविण्यासाठी हे वापरा. हे आपणास ट्रॅकमधील काही किंवा सर्व शांतता काढून टाकू देते.</t>
-  </si>
-  <si>
-    <t>व्हँप एनालिसिस प्लग-इन्स</t>
-  </si>
-  <si>
-    <t>आपण संगीत ऑडिओ फायलींच्या वर्णनात्मक सामग्री पाहण्यासाठी आणि त्यांचे विश्लेषण करण्यासाठी व्हँप प्लग-इन स्वरूपनात काही अतिरिक्त विश्लेषण साधने देखील जोडू शकता. व्हॅम्प प्लग-इनची गणना करू शकणार्‍या ठराविक गोष्टींमध्ये नोट्सच्या वेळेची वेळ आणि पॉवर किंवा मूलभूत वारंवारता डेटा सारख्या क्षणांची ठिकाणे समाविष्ट असतात. आलेख किंवा इतर व्हिज्युअल तयार करणारे प्लग-इन ऑडसिटीमध्ये कार्य करणार नाहीत, केवळ प्लग-इन जे लेबलांवर लिहिण्यासाठी उपयुक्त आहेत.</t>
-  </si>
-  <si>
-    <t>नवीन व्हँप विश्लेषण साधन जोडण्यासाठी, खाली असलेल्या ग्रीन बॉक्समध्ये सूचीबद्ध केलेल्या मार्गांपैकी प्लग-इनची डीएलएल, डीवायआयएलआयबी किंवा एसओ फाइल (आणि कोणतीही पुरविलेली श्रेणी (सीएटी) किंवा आरडीएफ (टीटीएल किंवा एन 3) फायली जोडा.</t>
-  </si>
-  <si>
-    <t>व्हँप प्लग-इन चालविण्यासाठी, ऑडिओ निवडा आणि मेनूमधून प्लग-इन चालवा. एक भाष्य केलेला लेबल ट्रॅक निकाल दर्शविते.</t>
-  </si>
-  <si>
     <t>. {टीप |</t>
   </si>
   <si>
-    <t>सध्या ऑडॅसिटी ऑडॅसिटी "प्लग-इन" फोल्डरमधून व्हँप प्लगइन लोड करू शकत नाही.</t>
-  </si>
-  <si>
-    <t>प्रत्येक वेळी जेव्हा आपण ऑडॅसिटी लॉन्च करता तेव्हा व्हॅम्प प्लग-इन खालील मानक निर्देशिका पासून लोड केले जातात:</t>
-  </si>
-  <si>
-    <t>सर्व प्लॅटफॉर्मवर: VAMP_PATH पर्यावरण व्हेरिएबलमध्ये सूचीबद्ध असलेल्या कोणत्याही निर्देशिका</t>
-  </si>
-  <si>
     <t>याव्यतिरिक्त विंडोज वर:</t>
   </si>
   <si>
-    <t>सी: \ प्रोग्राम फायली Windows विंडोज 32-बिट वर व्हँप प्लगइन्स किंवा सी: Files प्रोग्राम फाइल्स (एक्स 86) 64 विंडोज 64-बिटवरील व्हँप प्लगइन्स.</t>
-  </si>
-  <si>
     <t>याव्यतिरिक्त ओएस एक्स वर:</t>
   </si>
   <si>
-    <t>Library / लायब्ररी / ऑडिओ / प्लग-इन / व्हँप (वापरकर्ता प्लग-इन)</t>
-  </si>
-  <si>
-    <t>/ लायब्ररी / ऑडिओ / प्लग-इन / व्हँप (सिस्टम-वाईड प्लग-इन)</t>
-  </si>
-  <si>
     <t>याव्यतिरिक्त लिनक्स / युनिक्स वर:</t>
   </si>
   <si>
@@ -373,14 +259,131 @@
     <t>/ यूएसआर / स्थानिक / लिब / व्हँप (वापरकर्ता प्लग-इन)</t>
   </si>
   <si>
-    <t>/ usr / lib / vamp (सिस्टम-व्यापी प्लग-इन).</t>
+    <t>Library / लायब्ररी / ध्वनी / प्लग-इन / व्हँप (वापरकर्ता प्लग-इन)</t>
+  </si>
+  <si>
+    <t>यादीचे विश्लेषण करा</t>
+  </si>
+  <si>
+    <t>हे आपणास आपले विश्लेषण यादी आवश्यकतेनुसार ते कमी किंवा जास्त वेळ सानुकूलित करण्यास सक्षम करते.</t>
+  </si>
+  <si>
+    <t>नियमित अंतराल नावे</t>
+  </si>
+  <si>
+    <t>विश्लेषण यादीमध्ये आपल्या ध्वनीची वैशिष्ट्ये किंवा मुख्य वैशिष्ट्ये नावे शोधण्यासाठी साधने आहेत. ध्वनी माहिती पुरवणे स्वीकारणारे परंतु कोणतेही ध्वनी उत्पादित न देणारे प्लग-इन विश्लेषण नावद्वारे प्रदान केलेल्या विश्लेषणासह (किंवा काही वैकल्पिक एलएडीएसपीए प्लग-इनमध्ये प्लग-इनमध्येच "प्रभाव उत्पादित" विभागाद्वारे प्रदान केले जातील) ). जरी पूर्वनियोजितनुसार, बहुतेक विश्लेषण साधनांसाठी कीबोर्ड आडमार्ग प्रदान केला जात नाही, तरीही कोणत्याही विश्लेषण आदेशासाठी आपला स्वतःचा आडमार्ग स्थापित करणे शक्य आहे. हे कसे करावे यावरील सूचनांसाठी कृपया कीबोर्ड प्राधान्ये पहा.</t>
+  </si>
+  <si>
+    <t>व्हँप प्लग-इन चालविण्यासाठी, ध्वनी निवडा आणि यादीमधून प्लग-इन चालवा. एक भाष्य केलेला नाव गीतपट्टा निकाल दर्शविते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीमध्ये पाठविलेले बर्‍याच विश्लेषणे उपकरणे ही नेक्विस्ट प्लग-इन आहेत जी कोणत्याही मजकूर संपादकात संपादित केली जाऊ शकतात. नेक्विस्ट स्वरूप बद्दल अधिक तपशीलांसाठी आमच्या विकीवर नेक्विस्ट प्लग-इन संदर्भ पहा. आपण अतिरिक्त Nyquist विश्लेषण प्लगइन डाउनलोड करू शकता. अंगभूत विश्लेषक हे एलएडीएसपीए प्रभाव आहेत. लिनक्ससाठी काही अतिरिक्त LADSPA विश्लेषण प्लग-इन http://www.ladspa.org/ वरून डाउनलोड केले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>प्रत्येक पाठविलेल्या विश्लेषण प्रभावाचे वर्णन पृष्ठ (खाली दिलेल्या दुव्यांद्वारे प्रवेश केलेले) इंटरफेसची प्रतिमा आणि त्यातील पूर्वनियोजित समायोजन दर्शविते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीचे विश्लेषण साधने</t>
+  </si>
+  <si>
+    <t>तीन अंगभूत एलएडीएसपीए विश्लेषण साधने आहेतः तफावत, प्लॉट स्पेक्ट्रम आणि शोधा क्लीपिंग</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीसह पाठवलेली गेलेली पाच नेकीस्ट प्लग-इन विश्लेषण साधने आहेतः बीट फाइंडर, नियमित अंतराल नावे, नमुना माहिती निर्यात, मौन शोधक आणि ध्वनी शोधक</t>
+  </si>
+  <si>
+    <t>व्हँप विश्लेषण प्लग-इन देखील जोडले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>विश्लेषण यादीमधून हा पर्याय निवडणे (किंवा प्रभाव यादी किंवा यादी व्युत्पन्न करा) आपल्याला एका संवादात घेऊन जाईल जे आपल्याला ओड्यासिटीमधून विश्लेषक (आणि प्रभाव आणि जनरेटर) लोड आणि अनलोड करण्यास सक्षम करते.</t>
+  </si>
+  <si>
+    <t>तफावत ... Ctrl + Shift + T</t>
+  </si>
+  <si>
+    <t>अग्रभागी (भाषण) आणि पार्श्वभूमी (संगीत, प्रेक्षकांचा आवाज किंवा तत्सम) दरम्यान आवाज (तफावत) मधील सरासरी आरएमएस फरक निश्चित करण्यासाठी निवडलेल्या, एकल-स्टीरिओ-नसलेले ध्वनी गीतपट्टाचे विश्लेषण करते. भाषण ऐकण्याच्या कठीणतेसाठी सुगम आहे की नाही हे निर्धारित करणे हा आहे.</t>
+  </si>
+  <si>
+    <t>निवडलेला ध्वनी घेते (जे वेळेच्या वेळी ध्वनी दाबा मूल्यांचा स्थापित आहे) आणि त्याला वारंवारतेच्या आलेखामध्ये रुपांतरित करते (क्षैतिज प्रमाणात मध्ये</t>
+  </si>
+  <si>
+    <t>मोठेपणा विरूद्ध (हर्ट्ज) (डीबी मधील अनुलंब प्रमाणात).</t>
+  </si>
+  <si>
+    <t>फीत शोधा ...</t>
+  </si>
+  <si>
+    <t>नाव गीतपट्टामध्ये फीत केलेल्या नमुन्यांची धाव दाखवा, दर्शवा फीत दर्शविण्यासाठी पडदा-वाचक प्रवेशयोग्य पर्याय म्हणून. धाव मध्ये कमीतकमी एक फीत केलेला नमुना असणे आवश्यक आहे, परंतु त्यात न पडलेले नमुनेदेखील असू शकतात.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी सह पाठवलेले Nyquist प्लग-इन विश्लेषण साधने</t>
+  </si>
+  <si>
+    <t>नाव गीतपट्टामध्ये नावे दर्शवतात जेणेकरून संबंधित ध्वनी लहान, समान-आकारातील विभागांमध्ये विभाजित करता येईल. आंतरजालवर मोठी धारिका वितरित करण्यासाठी किंवा सर्व निर्यात केलेल्या धारिका समान आकाराच्या आहेत हे सुनिश्चित करण्यासाठी हे उपयुक्त ठरेल.</t>
+  </si>
+  <si>
+    <t>नमुना माहिती निर्यात</t>
+  </si>
+  <si>
+    <t>निवडलेल्या ध्वनीवरील सलग नमुन्यांची मूल्ये वाचतो आणि हा माहिती एका साध्या मजकूर, सीएसव्ही किंवा एचटीएमएल धारिकावर मुद्रित करतो. धारिकाच्या शीर्षस्थानी पुढील माहिती "शीर्षलेख" म्हणून जोडली जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>आजूबाजूच्या ध्वनीपेक्षा जोरात असलेल्या बीट्सवर नावे ठेवण्याचा प्रयत्न. हे बर्‍यापैकी उग्र आणि तयार साधन आहे आणि संकुचित डायनॅमिक श्रेणीसह ठराविक आधुनिक पॉप संगीत गीतपट्टावर चांगले कार्य करणार नाही.</t>
+  </si>
+  <si>
+    <t>खालील दोन संबंधित "शांतता शोधक" आणि "आवाज शोधक" साधने एलपी किंवा कॅसेट गीतपट्टा सारख्या लांब मुद्रणमध्ये वेगवेगळी गाणी किंवा विभाग नाव करण्यासाठी खूप उपयुक्त आहेत.</t>
+  </si>
+  <si>
+    <t>शांततेच्या ठिकाणी दर्शनीय नाव ठेवून गीतपट्टा विभाजित करते.</t>
+  </si>
+  <si>
+    <t>आपण त्यामधील शांतता न काढता एखाद्या विशिष्ट बिंदूवर फक्त मुद्रणाला गीतपट्टामध्ये विभाजित करू इच्छित असल्यास हे वापरा.</t>
+  </si>
+  <si>
+    <t>शांततेने विभक्त झालेल्या आवाजाच्या क्षेत्रासाठी प्रदेश नाव ठेवून गीतपट्टा विभाजित करते. प्रत्येक गीतपट्टाची निर्यात केली जाण्यासाठी नावे अचूक प्रदेश दर्शविण्यासाठी हे वापरा. हे आपणास गीतपट्टामधील काही किंवा सर्व शांतता काढून टाकू देते.</t>
+  </si>
+  <si>
+    <t>व्हँप विश्लेषण प्लग-इन्स</t>
+  </si>
+  <si>
+    <t>आपण संगीत ध्वनी धारीकांच्या वर्णनात्मक सामग्री पाहण्यासाठी आणि त्यांचे विश्लेषण करण्यासाठी व्हँप प्लग-इन स्वरूपनात काही अतिरिक्त विश्लेषण साधने देखील जोडू शकता. व्हॅम्प प्लग-इनची गणना करू शकणार्‍या ठराविक गोष्टींमध्ये टिपणेच्या वेळेची वेळ आणि शक्ती किंवा मूलभूत वारंवारता माहिती सारख्या क्षणांची ठिकाणे समाविष्ट असतात. आलेख किंवा इतर दृश्य तयार करणारे प्लग-इन ओड्यासिटीमध्ये कार्य करणार नाहीत, केवळ प्लग-इन जे नावांवर लिहिण्यासाठी उपयुक्त आहेत.</t>
+  </si>
+  <si>
+    <t>नवीन व्हँप विश्लेषण साधन जोडण्यासाठी, खाली असलेल्या हिरव्या बॉक्समध्ये सूचीबद्ध केलेल्या मार्गांपैकी प्लग-इनची डीएलएल, डीवायआयएलआयबी किंवा एसओ धारिका (आणि कोणतीही पुरविलेली श्रेणी (सीएटी) किंवा आरडीएफ (टीटीएल किंवा एन३) धारिका जोडा.</t>
+  </si>
+  <si>
+    <t>सध्या ओड्यासिटी ओड्यासिटी "प्लग-इन" फोल्डरमधून व्हँप प्लगइन लोड करू शकत नाही.</t>
+  </si>
+  <si>
+    <t>प्रत्येक वेळी जेव्हा आपण ओड्यासिटी सुरु करता तेव्हा व्हॅम्प प्लग-इन खालील मानक निर्देशिका पासून लोड केले जातात:</t>
+  </si>
+  <si>
+    <t>सर्व स्थानकांवर: VAMP_PATH पर्यावरण चलमध्ये सूचीबद्ध असलेल्या कोणत्याही निर्देशिका</t>
+  </si>
+  <si>
+    <t>यादीचे विश्लेषण करा - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>अतिरिक्त प्लगइन ओड्यासिटीमध्ये देखील लोड केले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकीवरील उपलब्ध Nyquist विश्लेषक प्लगइनची देखील सूची पहा, ती आपण सहजपणे डाउनलोड करू शकता आणि ओड्यासिटीमध्ये जोडू शकता.</t>
+  </si>
+  <si>
+    <t>/ usr / lib / vamp (प्रणाली-व्यापी प्लग-इन).</t>
+  </si>
+  <si>
+    <t>/ लायब्ररी / ध्वनी / प्लग-इन / व्हँप (प्रणाली-व्याप्ती प्लग-इन)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,10 +435,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,6 +452,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -489,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +538,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,6 +590,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,668 +783,674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="85.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="105.109375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C60" t="s">
-        <v>119</v>
+      <c r="C60" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
